--- a/pre_data/Above_pre.xlsx
+++ b/pre_data/Above_pre.xlsx
@@ -3372,94 +3372,94 @@
         <v>0.0005577005577005814</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:37">
@@ -4841,94 +4841,94 @@
         <v>0.0005577005577005884</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:37">
@@ -5959,106 +5959,106 @@
         <v>0.0001716001716001725</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:37">
